--- a/server/output/Alexandria International School_Users.xlsx
+++ b/server/output/Alexandria International School_Users.xlsx
@@ -22,19 +22,19 @@
     <t>jane.doe@example.com</t>
   </si>
   <si>
-    <t>(|kftEW4)*|%</t>
+    <t>5pK(+UO&gt;_tvR</t>
   </si>
   <si>
     <t>alex.brown@example.com</t>
   </si>
   <si>
-    <t>(03*ASnVOX9i</t>
+    <t>8FC!;Z)1s$y.</t>
   </si>
   <si>
     <t>ava.wilson@example.com</t>
   </si>
   <si>
-    <t>3CWOC0ofi3+n</t>
+    <t>d{.QR2T2Q.BN</t>
   </si>
 </sst>
 </file>

--- a/server/output/Alexandria International School_Users.xlsx
+++ b/server/output/Alexandria International School_Users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Email</t>
   </si>
@@ -19,22 +19,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>jane.doe@example.com</t>
-  </si>
-  <si>
-    <t>5pK(+UO&gt;_tvR</t>
-  </si>
-  <si>
-    <t>alex.brown@example.com</t>
-  </si>
-  <si>
-    <t>8FC!;Z)1s$y.</t>
-  </si>
-  <si>
-    <t>ava.wilson@example.com</t>
-  </si>
-  <si>
-    <t>d{.QR2T2Q.BN</t>
+    <t>olivia.martinez@example.com</t>
+  </si>
+  <si>
+    <t>pM(@L@I7})*Q</t>
+  </si>
+  <si>
+    <t>ethan.taylor@example.com</t>
+  </si>
+  <si>
+    <t>Ccp&amp;AZH@SK9L</t>
   </si>
 </sst>
 </file>
@@ -411,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -442,14 +436,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/output/Alexandria International School_Users.xlsx
+++ b/server/output/Alexandria International School_Users.xlsx
@@ -11,24 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>olivia.martinez@example.com</t>
-  </si>
-  <si>
-    <t>pM(@L@I7})*Q</t>
-  </si>
-  <si>
-    <t>ethan.taylor@example.com</t>
-  </si>
-  <si>
-    <t>Ccp&amp;AZH@SK9L</t>
   </si>
 </sst>
 </file>
@@ -405,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -420,22 +408,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/output/Alexandria International School_Users.xlsx
+++ b/server/output/Alexandria International School_Users.xlsx
@@ -11,12 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>U|,Bk)r&lt;2)6p</t>
+  </si>
+  <si>
+    <t>alex.brown@example.com</t>
+  </si>
+  <si>
+    <t>:l6ajiA&lt;fd&lt;X</t>
+  </si>
+  <si>
+    <t>olivia.martinez@example.com</t>
+  </si>
+  <si>
+    <t>IKZv3N|08rAg</t>
+  </si>
+  <si>
+    <t>ethan.taylor@example.com</t>
+  </si>
+  <si>
+    <t>mM^{bW041zD+</t>
+  </si>
+  <si>
+    <t>ava.wilson@example.com</t>
+  </si>
+  <si>
+    <t>6]W$vD^[Sy$U</t>
+  </si>
+  <si>
+    <t>mostafatam79@gmail.com</t>
+  </si>
+  <si>
+    <t>wF!c4EaS}e*7</t>
   </si>
 </sst>
 </file>
@@ -393,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -408,6 +444,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/output/Alexandria International School_Users.xlsx
+++ b/server/output/Alexandria International School_Users.xlsx
@@ -11,48 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>jane.doe@example.com</t>
-  </si>
-  <si>
-    <t>U|,Bk)r&lt;2)6p</t>
-  </si>
-  <si>
-    <t>alex.brown@example.com</t>
-  </si>
-  <si>
-    <t>:l6ajiA&lt;fd&lt;X</t>
-  </si>
-  <si>
-    <t>olivia.martinez@example.com</t>
-  </si>
-  <si>
-    <t>IKZv3N|08rAg</t>
-  </si>
-  <si>
-    <t>ethan.taylor@example.com</t>
-  </si>
-  <si>
-    <t>mM^{bW041zD+</t>
-  </si>
-  <si>
-    <t>ava.wilson@example.com</t>
-  </si>
-  <si>
-    <t>6]W$vD^[Sy$U</t>
-  </si>
-  <si>
-    <t>mostafatam79@gmail.com</t>
-  </si>
-  <si>
-    <t>wF!c4EaS}e*7</t>
   </si>
 </sst>
 </file>
@@ -429,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -444,54 +408,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
